--- a/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D26C98-9761-4DD1-B4F8-3CC1F9A0AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{391873C7-DC28-483B-A97B-DF5BBD80E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E24D332F-5B0A-42BF-B9D2-45110032A753}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F20F6E2D-5D2A-4902-A651-B17F34CBBB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="300">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,79%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>No fumo, pero he fumado antes diariamente</t>
@@ -107,829 +107,832 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1344,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4D5425-9F67-4C28-B91C-DBCDF5297DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB93599-98B2-47AD-B196-5568F797981E}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1932,10 +1935,10 @@
         <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1944,13 +1947,13 @@
         <v>7448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1959,13 +1962,13 @@
         <v>13416</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>14648</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1995,13 +1998,13 @@
         <v>8633</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2010,13 +2013,13 @@
         <v>23282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2034,13 @@
         <v>10837</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2046,13 +2049,13 @@
         <v>2820</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2061,13 +2064,13 @@
         <v>13657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2085,13 @@
         <v>373275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>422</v>
@@ -2097,13 +2100,13 @@
         <v>455992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
@@ -2112,13 +2115,13 @@
         <v>829268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,7 +2177,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2186,13 +2189,13 @@
         <v>21052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -2201,13 +2204,13 @@
         <v>20684</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -2216,13 +2219,13 @@
         <v>41736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,10 +2243,10 @@
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2252,13 +2255,13 @@
         <v>6900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2267,13 +2270,13 @@
         <v>14203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2291,13 @@
         <v>11398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2303,13 +2306,13 @@
         <v>4882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2318,13 +2321,13 @@
         <v>16280</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2342,13 @@
         <v>4833</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2354,13 +2357,13 @@
         <v>2311</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2369,13 +2372,13 @@
         <v>7144</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2393,13 @@
         <v>1316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2411,7 +2414,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2426,7 +2429,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2444,13 @@
         <v>511190</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>787</v>
@@ -2456,13 +2459,13 @@
         <v>545443</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>1285</v>
@@ -2471,13 +2474,13 @@
         <v>1056633</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2548,13 @@
         <v>25449</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2560,13 +2563,13 @@
         <v>21225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -2575,13 +2578,13 @@
         <v>46675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2599,13 @@
         <v>8465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2611,13 +2614,13 @@
         <v>16789</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2626,13 +2629,13 @@
         <v>25254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2650,13 @@
         <v>3419</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2662,13 +2665,13 @@
         <v>6460</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -2677,13 +2680,13 @@
         <v>9879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2701,13 @@
         <v>9316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2713,13 +2716,13 @@
         <v>2317</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -2728,13 +2731,13 @@
         <v>11633</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2752,13 @@
         <v>51579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2764,13 +2767,13 @@
         <v>3075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2779,13 +2782,13 @@
         <v>54654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2803,13 @@
         <v>620065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>1067</v>
@@ -2815,13 +2818,13 @@
         <v>695954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>1677</v>
@@ -2830,13 +2833,13 @@
         <v>1316019</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,7 +2895,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2904,13 +2907,13 @@
         <v>11654</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -2919,13 +2922,13 @@
         <v>12890</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -2934,13 +2937,13 @@
         <v>24544</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2958,13 @@
         <v>14480</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -2973,10 +2976,10 @@
         <v>21</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -2985,13 +2988,13 @@
         <v>21955</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3009,13 @@
         <v>7361</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3021,13 +3024,13 @@
         <v>1741</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3036,13 +3039,13 @@
         <v>9103</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3060,13 @@
         <v>1866</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3072,13 +3075,13 @@
         <v>2602</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -3087,13 +3090,13 @@
         <v>4467</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3111,13 @@
         <v>820</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3126,7 +3129,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>83</v>
@@ -3138,13 +3141,13 @@
         <v>820</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3162,13 @@
         <v>561897</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>953</v>
@@ -3174,13 +3177,13 @@
         <v>570261</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>1574</v>
@@ -3189,13 +3192,13 @@
         <v>1132157</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3254,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3266,13 @@
         <v>9961</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="H39" s="7">
         <v>56</v>
@@ -3278,13 +3281,13 @@
         <v>25175</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M39" s="7">
         <v>71</v>
@@ -3293,13 +3296,13 @@
         <v>35136</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3317,13 @@
         <v>12362</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -3329,13 +3332,13 @@
         <v>6176</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -3344,13 +3347,13 @@
         <v>18538</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3368,13 @@
         <v>907</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3380,13 +3383,13 @@
         <v>1731</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3401,7 +3404,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>83</v>
@@ -3431,13 +3434,13 @@
         <v>631</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3452,7 +3455,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3470,13 @@
         <v>796</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -3482,13 +3485,13 @@
         <v>1634</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3497,13 +3500,13 @@
         <v>2430</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3521,13 @@
         <v>673023</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H44" s="7">
         <v>1632</v>
@@ -3533,13 +3536,13 @@
         <v>990067</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>2626</v>
@@ -3548,13 +3551,13 @@
         <v>1663091</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3625,13 @@
         <v>114039</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H46" s="7">
         <v>189</v>
@@ -3637,13 +3640,13 @@
         <v>125646</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="M46" s="7">
         <v>295</v>
@@ -3652,13 +3655,13 @@
         <v>239685</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3676,13 @@
         <v>53180</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H47" s="7">
         <v>52</v>
@@ -3688,13 +3691,13 @@
         <v>45461</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M47" s="7">
         <v>104</v>
@@ -3703,13 +3706,13 @@
         <v>98641</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3727,13 @@
         <v>39382</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -3739,13 +3742,13 @@
         <v>26722</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M48" s="7">
         <v>61</v>
@@ -3754,13 +3757,13 @@
         <v>66103</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3778,13 @@
         <v>38066</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>282</v>
+        <v>138</v>
       </c>
       <c r="H49" s="7">
         <v>24</v>
@@ -3793,10 +3796,10 @@
         <v>82</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="M49" s="7">
         <v>53</v>
@@ -3805,13 +3808,13 @@
         <v>64326</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3832,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>285</v>
@@ -3841,7 +3844,7 @@
         <v>16617</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>286</v>
@@ -3856,13 +3859,13 @@
         <v>95523</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3880,13 @@
         <v>3051637</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H51" s="7">
         <v>5041</v>
@@ -3892,13 +3895,13 @@
         <v>3560106</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M51" s="7">
         <v>8175</v>
@@ -3907,13 +3910,13 @@
         <v>6611743</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3928,7 @@
         <v>3366</v>
       </c>
       <c r="D52" s="7">
-        <v>3375211</v>
+        <v>3375210</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>68</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391873C7-DC28-483B-A97B-DF5BBD80E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68515868-29F5-4AB6-8EED-DCD4AC0AA743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F20F6E2D-5D2A-4902-A651-B17F34CBBB3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6B87E54-A7D5-4757-8E4A-41DA02446D46}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB93599-98B2-47AD-B196-5568F797981E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D1819C-A00F-423D-B26D-D449F18048B3}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68515868-29F5-4AB6-8EED-DCD4AC0AA743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C084695F-EBFA-4F4B-9565-A086E54DF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6B87E54-A7D5-4757-8E4A-41DA02446D46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0030550B-8223-4DEC-A316-F2EED9A0705A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="299">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,865 +74,862 @@
     <t>7,79%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1347,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D1819C-A00F-423D-B26D-D449F18048B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB036B4-DA5B-4A34-9B4E-2F5444EF20C7}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,10 +1932,10 @@
         <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1947,13 +1944,13 @@
         <v>7448</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1962,13 +1959,13 @@
         <v>13416</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1980,13 @@
         <v>14648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1998,13 +1995,13 @@
         <v>8633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2013,13 +2010,13 @@
         <v>23282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2031,13 @@
         <v>10837</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2049,13 +2046,13 @@
         <v>2820</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2064,13 +2061,13 @@
         <v>13657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2082,13 @@
         <v>373275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>422</v>
@@ -2100,13 +2097,13 @@
         <v>455992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
@@ -2115,13 +2112,13 @@
         <v>829268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2174,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2189,13 +2186,13 @@
         <v>21052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -2204,13 +2201,13 @@
         <v>20684</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -2219,13 +2216,13 @@
         <v>41736</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,10 +2240,10 @@
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2255,13 +2252,13 @@
         <v>6900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2270,13 +2267,13 @@
         <v>14203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2288,13 @@
         <v>11398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2306,13 +2303,13 @@
         <v>4882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2321,13 +2318,13 @@
         <v>16280</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2339,13 @@
         <v>4833</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2357,13 +2354,13 @@
         <v>2311</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2372,13 +2369,13 @@
         <v>7144</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2390,13 @@
         <v>1316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2414,7 +2411,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2429,7 +2426,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2441,13 @@
         <v>511190</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>787</v>
@@ -2459,13 +2456,13 @@
         <v>545443</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>1285</v>
@@ -2474,13 +2471,13 @@
         <v>1056633</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2533,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2548,13 +2545,13 @@
         <v>25449</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2563,13 +2560,13 @@
         <v>21225</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -2578,13 +2575,13 @@
         <v>46675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2596,13 @@
         <v>8465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2614,13 +2611,13 @@
         <v>16789</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2629,13 +2626,13 @@
         <v>25254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2647,13 @@
         <v>3419</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2665,13 +2662,13 @@
         <v>6460</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -2680,13 +2677,13 @@
         <v>9879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2698,13 @@
         <v>9316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2716,13 +2713,13 @@
         <v>2317</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -2731,13 +2728,13 @@
         <v>11633</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2749,13 @@
         <v>51579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2767,13 +2764,13 @@
         <v>3075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2782,13 +2779,13 @@
         <v>54654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2800,13 @@
         <v>620065</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>1067</v>
@@ -2818,13 +2815,13 @@
         <v>695954</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>1677</v>
@@ -2833,13 +2830,13 @@
         <v>1316019</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2892,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2907,13 +2904,13 @@
         <v>11654</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -2922,13 +2919,13 @@
         <v>12890</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
@@ -2937,13 +2934,13 @@
         <v>24544</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2955,13 @@
         <v>14480</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -2976,10 +2973,10 @@
         <v>21</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -2988,13 +2985,13 @@
         <v>21955</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3006,13 @@
         <v>7361</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3024,13 +3021,13 @@
         <v>1741</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3039,13 +3036,13 @@
         <v>9103</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3057,13 @@
         <v>1866</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3075,13 +3072,13 @@
         <v>2602</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -3090,13 +3087,13 @@
         <v>4467</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3108,13 @@
         <v>820</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3129,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>83</v>
@@ -3141,13 +3138,13 @@
         <v>820</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3159,13 @@
         <v>561897</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>953</v>
@@ -3177,13 +3174,13 @@
         <v>570261</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>1574</v>
@@ -3192,13 +3189,13 @@
         <v>1132157</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3251,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3266,13 +3263,13 @@
         <v>9961</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="H39" s="7">
         <v>56</v>
@@ -3281,13 +3278,13 @@
         <v>25175</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M39" s="7">
         <v>71</v>
@@ -3296,13 +3293,13 @@
         <v>35136</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3314,13 @@
         <v>12362</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -3332,13 +3329,13 @@
         <v>6176</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -3347,13 +3344,13 @@
         <v>18538</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3365,13 @@
         <v>907</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3383,13 +3380,13 @@
         <v>1731</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3404,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3419,7 @@
         <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>83</v>
@@ -3434,13 +3431,13 @@
         <v>631</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3455,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3467,13 @@
         <v>796</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -3485,13 +3482,13 @@
         <v>1634</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3500,13 +3497,13 @@
         <v>2430</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3518,13 @@
         <v>673023</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H44" s="7">
         <v>1632</v>
@@ -3536,13 +3533,13 @@
         <v>990067</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>2626</v>
@@ -3551,13 +3548,13 @@
         <v>1663091</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3622,13 @@
         <v>114039</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H46" s="7">
         <v>189</v>
@@ -3640,13 +3637,13 @@
         <v>125646</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="M46" s="7">
         <v>295</v>
@@ -3655,13 +3652,13 @@
         <v>239685</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3673,13 @@
         <v>53180</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H47" s="7">
         <v>52</v>
@@ -3691,13 +3688,13 @@
         <v>45461</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M47" s="7">
         <v>104</v>
@@ -3706,13 +3703,13 @@
         <v>98641</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3724,13 @@
         <v>39382</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -3742,13 +3739,13 @@
         <v>26722</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="M48" s="7">
         <v>61</v>
@@ -3757,13 +3754,13 @@
         <v>66103</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3775,13 @@
         <v>38066</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="H49" s="7">
         <v>24</v>
@@ -3796,10 +3793,10 @@
         <v>82</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="M49" s="7">
         <v>53</v>
@@ -3808,13 +3805,13 @@
         <v>64326</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3829,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>285</v>
@@ -3844,7 +3841,7 @@
         <v>16617</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>286</v>
@@ -3859,13 +3856,13 @@
         <v>95523</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3877,13 @@
         <v>3051637</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H51" s="7">
         <v>5041</v>
@@ -3895,13 +3892,13 @@
         <v>3560106</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M51" s="7">
         <v>8175</v>
@@ -3910,13 +3907,13 @@
         <v>6611743</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,7 +3925,7 @@
         <v>3366</v>
       </c>
       <c r="D52" s="7">
-        <v>3375210</v>
+        <v>3375211</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>68</v>
@@ -3972,7 +3969,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C084695F-EBFA-4F4B-9565-A086E54DF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB51F03-287D-4B0E-977A-CB6E48B12BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0030550B-8223-4DEC-A316-F2EED9A0705A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{663489F3-2E3C-4928-B5E7-8242B215D4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="317">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -65,871 +65,925 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No fumo, aunque he fumado antes pero no diariamente</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>No fumo, pero he fumado antes diariamente</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1344,8 +1398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB036B4-DA5B-4A34-9B4E-2F5444EF20C7}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75933E6-34FE-4D57-A1BD-3EC3F7824808}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1465,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>29439</v>
+        <v>29446</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1480,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>25448</v>
+        <v>21200</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1495,7 +1549,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>54887</v>
+        <v>50645</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1516,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>4762</v>
+        <v>5272</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1531,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>4661</v>
+        <v>4271</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1546,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>9424</v>
+        <v>9543</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1567,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>10328</v>
+        <v>10458</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1582,184 +1636,184 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>4460</v>
+        <v>4020</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>14788</v>
+        <v>14478</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>7403</v>
+        <v>8160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>9766</v>
+        <v>8267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>17168</v>
+        <v>16427</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>13559</v>
+        <v>18959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>8236</v>
+        <v>7619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>21795</v>
+        <v>26577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>146</v>
       </c>
       <c r="D9" s="7">
-        <v>312187</v>
+        <v>327693</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>180</v>
       </c>
       <c r="I9" s="7">
-        <v>302387</v>
+        <v>267824</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
       </c>
       <c r="N9" s="7">
-        <v>614574</v>
+        <v>595516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,51 +1825,51 @@
         <v>172</v>
       </c>
       <c r="D10" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>379</v>
       </c>
       <c r="N10" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1824,46 +1878,46 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>16484</v>
+        <v>17133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>20224</v>
+        <v>18648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>36707</v>
+        <v>35780</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,46 +1929,46 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>5808</v>
+        <v>6238</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>3460</v>
+        <v>3852</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>9268</v>
+        <v>10089</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,28 +1980,28 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>5968</v>
+        <v>5527</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>7448</v>
+        <v>6189</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>92</v>
@@ -1956,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>13416</v>
+        <v>11716</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>93</v>
@@ -1965,160 +2019,160 @@
         <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>14648</v>
+        <v>15630</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>8633</v>
+        <v>7636</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
       </c>
       <c r="N14" s="7">
-        <v>23282</v>
+        <v>23266</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>10837</v>
+        <v>11829</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>2820</v>
+        <v>2649</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>13657</v>
+        <v>14478</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>265</v>
       </c>
       <c r="D16" s="7">
-        <v>373275</v>
+        <v>365996</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>422</v>
       </c>
       <c r="I16" s="7">
-        <v>455992</v>
+        <v>472531</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>687</v>
       </c>
       <c r="N16" s="7">
-        <v>829268</v>
+        <v>838527</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,51 +2184,51 @@
         <v>301</v>
       </c>
       <c r="D17" s="7">
-        <v>427020</v>
+        <v>422353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>460</v>
       </c>
       <c r="I17" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
       </c>
       <c r="N17" s="7">
-        <v>925598</v>
+        <v>933857</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2183,22 +2237,22 @@
         <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>21052</v>
+        <v>20147</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>20684</v>
+        <v>19115</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>125</v>
@@ -2213,13 +2267,13 @@
         <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>41736</v>
+        <v>39262</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>129</v>
@@ -2234,46 +2288,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>7303</v>
+        <v>6994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>6900</v>
+        <v>6311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>14203</v>
+        <v>13305</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,61 +2339,61 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>11398</v>
+        <v>10707</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>4882</v>
+        <v>4382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
       </c>
       <c r="N20" s="7">
-        <v>16280</v>
+        <v>15088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>4833</v>
+        <v>4395</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>144</v>
@@ -2351,133 +2405,133 @@
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>2311</v>
+        <v>2026</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>7144</v>
+        <v>6421</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>851</v>
+        <v>726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>2167</v>
+        <v>2048</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>498</v>
       </c>
       <c r="D23" s="7">
-        <v>511190</v>
+        <v>492610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>787</v>
       </c>
       <c r="I23" s="7">
-        <v>545443</v>
+        <v>507664</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>1285</v>
       </c>
       <c r="N23" s="7">
-        <v>1056633</v>
+        <v>1000273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,51 +2543,51 @@
         <v>545</v>
       </c>
       <c r="D24" s="7">
-        <v>557092</v>
+        <v>536174</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>843</v>
       </c>
       <c r="I24" s="7">
-        <v>581071</v>
+        <v>540223</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1388</v>
       </c>
       <c r="N24" s="7">
-        <v>1138163</v>
+        <v>1076396</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2542,46 +2596,46 @@
         <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>25449</v>
+        <v>24342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>21225</v>
+        <v>19491</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>46675</v>
+        <v>43833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,46 +2647,46 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>8465</v>
+        <v>8099</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
       </c>
       <c r="I26" s="7">
-        <v>16789</v>
+        <v>14009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>25254</v>
+        <v>22109</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,199 +2698,199 @@
         <v>3</v>
       </c>
       <c r="D27" s="7">
-        <v>3419</v>
+        <v>3230</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>6460</v>
+        <v>5965</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
       </c>
       <c r="N27" s="7">
-        <v>9879</v>
+        <v>9195</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>9316</v>
+        <v>8358</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>2317</v>
+        <v>2018</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
       </c>
       <c r="N28" s="7">
-        <v>11633</v>
+        <v>10376</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>51579</v>
+        <v>244680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>3075</v>
+        <v>2740</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>54654</v>
+        <v>247420</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>610</v>
       </c>
       <c r="D30" s="7">
-        <v>620065</v>
+        <v>593525</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>1067</v>
       </c>
       <c r="I30" s="7">
-        <v>695954</v>
+        <v>667313</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>1677</v>
       </c>
       <c r="N30" s="7">
-        <v>1316019</v>
+        <v>1260837</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,51 +2902,51 @@
         <v>660</v>
       </c>
       <c r="D31" s="7">
-        <v>718293</v>
+        <v>882234</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>1139</v>
       </c>
       <c r="I31" s="7">
-        <v>745821</v>
+        <v>711537</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>1799</v>
       </c>
       <c r="N31" s="7">
-        <v>1464114</v>
+        <v>1593771</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2901,46 +2955,46 @@
         <v>15</v>
       </c>
       <c r="D32" s="7">
-        <v>11654</v>
+        <v>10887</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
       </c>
       <c r="I32" s="7">
-        <v>12890</v>
+        <v>11868</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>43</v>
       </c>
       <c r="N32" s="7">
-        <v>24544</v>
+        <v>22755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,46 +3006,46 @@
         <v>15</v>
       </c>
       <c r="D33" s="7">
-        <v>14480</v>
+        <v>13302</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
       </c>
       <c r="I33" s="7">
-        <v>7476</v>
+        <v>6785</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
       </c>
       <c r="N33" s="7">
-        <v>21955</v>
+        <v>20087</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,118 +3057,118 @@
         <v>7</v>
       </c>
       <c r="D34" s="7">
-        <v>7361</v>
+        <v>6626</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>1741</v>
+        <v>1661</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
       </c>
       <c r="N34" s="7">
-        <v>9103</v>
+        <v>8287</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>1866</v>
+        <v>1565</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>2602</v>
+        <v>2306</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
       </c>
       <c r="N35" s="7">
-        <v>4467</v>
+        <v>3871</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>820</v>
+        <v>663</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3126,76 +3180,76 @@
         <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>820</v>
+        <v>663</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
         <v>621</v>
       </c>
       <c r="D37" s="7">
-        <v>561897</v>
+        <v>526202</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>953</v>
       </c>
       <c r="I37" s="7">
-        <v>570261</v>
+        <v>523364</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>1574</v>
       </c>
       <c r="N37" s="7">
-        <v>1132157</v>
+        <v>1049567</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,99 +3261,99 @@
         <v>661</v>
       </c>
       <c r="D38" s="7">
-        <v>598078</v>
+        <v>559246</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" s="7">
         <v>999</v>
       </c>
       <c r="I38" s="7">
-        <v>594970</v>
+        <v>545984</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
         <v>1660</v>
       </c>
       <c r="N38" s="7">
-        <v>1193047</v>
+        <v>1105231</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7">
-        <v>9961</v>
+        <v>6916</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="H39" s="7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I39" s="7">
-        <v>25175</v>
+        <v>10846</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M39" s="7">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="N39" s="7">
-        <v>35136</v>
+        <v>17762</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,49 +3362,49 @@
         <v>20</v>
       </c>
       <c r="C40" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5043</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" s="7">
+        <v>8</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3889</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" s="7">
         <v>16</v>
       </c>
-      <c r="D40" s="7">
-        <v>12362</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" s="7">
-        <v>11</v>
-      </c>
-      <c r="I40" s="7">
-        <v>6176</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M40" s="7">
-        <v>27</v>
-      </c>
       <c r="N40" s="7">
-        <v>18538</v>
+        <v>8931</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,52 +3416,52 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>907</v>
+        <v>864</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1146</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M41" s="7">
         <v>3</v>
       </c>
-      <c r="I41" s="7">
-        <v>1731</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M41" s="7">
-        <v>4</v>
-      </c>
       <c r="N41" s="7">
-        <v>2638</v>
+        <v>2010</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3419,142 +3473,142 @@
         <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
       </c>
       <c r="I43" s="7">
-        <v>1634</v>
+        <v>1457</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>2430</v>
+        <v>2237</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
-        <v>994</v>
+        <v>548</v>
       </c>
       <c r="D44" s="7">
-        <v>673023</v>
+        <v>353944</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H44" s="7">
-        <v>1632</v>
+        <v>785</v>
       </c>
       <c r="I44" s="7">
-        <v>990067</v>
+        <v>589859</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M44" s="7">
-        <v>2626</v>
+        <v>1333</v>
       </c>
       <c r="N44" s="7">
-        <v>1663091</v>
+        <v>943803</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,102 +3617,102 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D45" s="7">
-        <v>697049</v>
+        <v>367545</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H45" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I45" s="7">
-        <v>1025415</v>
+        <v>607789</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M45" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N45" s="7">
-        <v>1722464</v>
+        <v>975334</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>114039</v>
+        <v>2304</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H46" s="7">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I46" s="7">
-        <v>125646</v>
+        <v>11912</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="M46" s="7">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="N46" s="7">
-        <v>239685</v>
+        <v>14216</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,46 +3721,46 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D47" s="7">
-        <v>53180</v>
+        <v>6433</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H47" s="7">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>45461</v>
+        <v>1644</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="M47" s="7">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="N47" s="7">
-        <v>98641</v>
+        <v>8076</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>274</v>
@@ -3718,202 +3772,202 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>39382</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7">
+        <v>377</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H48" s="7">
-        <v>31</v>
-      </c>
-      <c r="I48" s="7">
-        <v>26722</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="M48" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>66103</v>
+        <v>377</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>38066</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="H49" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>26260</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="M49" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>64326</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>78906</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>285</v>
+        <v>87</v>
       </c>
       <c r="H50" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>16617</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="M50" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>95523</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
-        <v>3134</v>
+        <v>446</v>
       </c>
       <c r="D51" s="7">
-        <v>3051637</v>
+        <v>274023</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H51" s="7">
-        <v>5041</v>
+        <v>847</v>
       </c>
       <c r="I51" s="7">
-        <v>3560106</v>
+        <v>411341</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="M51" s="7">
-        <v>8175</v>
+        <v>1293</v>
       </c>
       <c r="N51" s="7">
-        <v>6611743</v>
+        <v>685363</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,63 +3976,423 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>458</v>
+      </c>
+      <c r="D52" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="7">
+        <v>880</v>
+      </c>
+      <c r="I52" s="7">
+        <v>425273</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N52" s="7">
+        <v>708032</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>106</v>
+      </c>
+      <c r="D53" s="7">
+        <v>111174</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H53" s="7">
+        <v>189</v>
+      </c>
+      <c r="I53" s="7">
+        <v>113078</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M53" s="7">
+        <v>295</v>
+      </c>
+      <c r="N53" s="7">
+        <v>224253</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>52</v>
+      </c>
+      <c r="D54" s="7">
+        <v>51381</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="7">
+        <v>52</v>
+      </c>
+      <c r="I54" s="7">
+        <v>40760</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M54" s="7">
+        <v>104</v>
+      </c>
+      <c r="N54" s="7">
+        <v>92141</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>30</v>
+      </c>
+      <c r="D55" s="7">
+        <v>37411</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="7">
+        <v>31</v>
+      </c>
+      <c r="I55" s="7">
+        <v>23740</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M55" s="7">
+        <v>61</v>
+      </c>
+      <c r="N55" s="7">
+        <v>61151</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="7">
+        <v>29</v>
+      </c>
+      <c r="D56" s="7">
+        <v>38109</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" s="7">
+        <v>24</v>
+      </c>
+      <c r="I56" s="7">
+        <v>22845</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M56" s="7">
+        <v>53</v>
+      </c>
+      <c r="N56" s="7">
+        <v>60953</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7">
+        <v>15</v>
+      </c>
+      <c r="D57" s="7">
+        <v>278232</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H57" s="7">
+        <v>17</v>
+      </c>
+      <c r="I57" s="7">
+        <v>15192</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M57" s="7">
+        <v>32</v>
+      </c>
+      <c r="N57" s="7">
+        <v>293424</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="7">
+        <v>3134</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2933993</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58" s="7">
+        <v>5041</v>
+      </c>
+      <c r="I58" s="7">
+        <v>3439894</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M58" s="7">
+        <v>8175</v>
+      </c>
+      <c r="N58" s="7">
+        <v>6373886</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>3366</v>
       </c>
-      <c r="D52" s="7">
-        <v>3375211</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="D59" s="7">
+        <v>3450299</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="7">
         <v>5354</v>
       </c>
-      <c r="I52" s="7">
-        <v>3800811</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="I59" s="7">
+        <v>3655510</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M59" s="7">
         <v>8720</v>
       </c>
-      <c r="N52" s="7">
-        <v>7176022</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>298</v>
+      <c r="N59" s="7">
+        <v>7105808</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
